--- a/회원목록.xlsx
+++ b/회원목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cnt\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FB8C12-97F2-4D48-9B9C-77873C737FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4836891C-E99E-4E84-B9EB-656642D0961D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27555" yWindow="11265" windowWidth="28800" windowHeight="15465" xr2:uid="{8E54118A-5F68-4FCF-AEF6-8B6D31A16CB6}"/>
+    <workbookView xWindow="-28800" yWindow="11535" windowWidth="28800" windowHeight="15465" xr2:uid="{8E54118A-5F68-4FCF-AEF6-8B6D31A16CB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>점화걸면정화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,14 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보라퐁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울프람오메가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88C5344-5D99-4E95-B100-5B1C4D9566BE}">
   <dimension ref="C1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -650,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.45">
@@ -658,7 +666,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.45">
@@ -666,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.45">
@@ -674,7 +682,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.45">
@@ -682,18 +690,24 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>1</v>
       </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>21</v>
       </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
@@ -829,8 +843,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F10">
-    <sortCondition ref="F2:F10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G12">
+    <sortCondition ref="F2:F12"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/회원목록.xlsx
+++ b/회원목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cnt\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4836891C-E99E-4E84-B9EB-656642D0961D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C873CA-62D8-4A26-A4E9-C949AA098127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="11535" windowWidth="28800" windowHeight="15465" xr2:uid="{8E54118A-5F68-4FCF-AEF6-8B6D31A16CB6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>점화걸면정화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,10 @@
   </si>
   <si>
     <t>울프람오메가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x 임시사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +599,7 @@
   <dimension ref="C1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -631,7 +635,7 @@
         <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.45">

--- a/회원목록.xlsx
+++ b/회원목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cnt\Desktop\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C873CA-62D8-4A26-A4E9-C949AA098127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28503E4-030F-48CF-A083-805F92ED5F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="11535" windowWidth="28800" windowHeight="15465" xr2:uid="{8E54118A-5F68-4FCF-AEF6-8B6D31A16CB6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>점화걸면정화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>꿈희쭈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>축복영업사원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,18 +155,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>txt우현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>윤시은</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서강섭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비온계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아마평생뉴비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미노르바</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,6 +216,29 @@
   </si>
   <si>
     <t>x 임시사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형제뒤에서뭐해요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리아나기갈데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아따비</t>
+  </si>
+  <si>
+    <t>골든리트리버키운다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에몽이무니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상콤한가지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88C5344-5D99-4E95-B100-5B1C4D9566BE}">
-  <dimension ref="C1:G38"/>
+  <dimension ref="C1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -610,21 +617,21 @@
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.45">
@@ -632,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.45">
@@ -643,134 +650,143 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>31</v>
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.45">
@@ -780,7 +796,7 @@
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.45">
@@ -795,10 +811,10 @@
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.45">
@@ -818,7 +834,7 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.45">
@@ -838,17 +854,22 @@
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C39" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G12">
-    <sortCondition ref="F2:F12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D39">
+    <sortCondition ref="C2:C39"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
